--- a/template/template_ctp.xlsx
+++ b/template/template_ctp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Developer\ut\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F387298-6299-4AEA-900C-8FF2AF2321EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E81B1A-4059-4EF3-A1FC-66E4BEB7AA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="677" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1555,66 +1555,6 @@
     <xf numFmtId="0" fontId="42" fillId="80" borderId="10" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="77" borderId="10" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="77" borderId="11" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="77" borderId="13" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="67" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="78" borderId="0" xfId="67" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="78" borderId="10" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="77" borderId="10" xfId="67" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="77" borderId="10" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="79" borderId="10" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="79" borderId="11" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="79" borderId="13" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="42" fillId="77" borderId="11" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="42" fillId="77" borderId="13" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="77" borderId="11" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="77" borderId="13" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="77" borderId="11" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="77" borderId="12" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="77" borderId="13" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="77" borderId="11" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="77" borderId="13" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1629,6 +1569,66 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="77" borderId="10" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="77" borderId="11" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="77" borderId="13" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="67" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="78" borderId="0" xfId="67" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="78" borderId="10" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="77" borderId="10" xfId="67" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="77" borderId="10" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="79" borderId="10" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="79" borderId="11" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="79" borderId="13" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="42" fillId="77" borderId="11" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="42" fillId="77" borderId="13" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="77" borderId="11" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="77" borderId="13" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="77" borderId="11" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="77" borderId="12" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="77" borderId="13" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="77" borderId="11" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="77" borderId="13" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="118">
@@ -2712,88 +2712,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -2802,14 +2802,14 @@
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="46"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -2818,182 +2818,182 @@
       <c r="B12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="47" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
     </row>
     <row r="26" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
     </row>
     <row r="30" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
     </row>
     <row r="31" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
     </row>
     <row r="32" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
     </row>
     <row r="34" spans="1:6" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -3002,46 +3002,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A1:F1"/>
@@ -3055,6 +3015,46 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
@@ -3077,7 +3077,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3128,34 +3128,34 @@
       <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="49" t="str">
+      <c r="B4" s="56" t="str">
         <f>'Cover Sheet'!B6&amp;"/"&amp;'Cover Sheet'!B7</f>
         <v>&lt;ricefw_id&gt;/&lt;ricefw_name&gt;</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:9" s="21" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:9" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
@@ -3193,457 +3193,457 @@
       <c r="B8" s="27"/>
       <c r="C8" s="26"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27"/>
       <c r="C9" s="26"/>
       <c r="E9" s="35"/>
-      <c r="F9" s="62"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="27"/>
       <c r="C10" s="26"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="62"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="27"/>
       <c r="C11" s="26"/>
       <c r="E11" s="35"/>
-      <c r="F11" s="62"/>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="27"/>
       <c r="C12" s="26"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="60"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="C13" s="26"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="62"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="27"/>
       <c r="C14" s="26"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="62"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="C15" s="26"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="62"/>
-    </row>
-    <row r="16" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="62"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
       <c r="E17" s="35"/>
-      <c r="F17" s="62"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
       <c r="E18" s="35"/>
-      <c r="F18" s="62"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
       <c r="E19" s="35"/>
-      <c r="F19" s="62"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="62"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="62"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="62"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="62"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="62"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="62"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="26"/>
       <c r="D26" s="27"/>
       <c r="E26" s="35"/>
-      <c r="F26" s="62"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
       <c r="E27" s="35"/>
-      <c r="F27" s="62"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
       <c r="E28" s="35"/>
-      <c r="F28" s="62"/>
+      <c r="F28" s="42"/>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="26"/>
       <c r="D29" s="27"/>
       <c r="E29" s="35"/>
-      <c r="F29" s="62"/>
+      <c r="F29" s="42"/>
       <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="26"/>
       <c r="D30" s="27"/>
       <c r="E30" s="35"/>
-      <c r="F30" s="62"/>
+      <c r="F30" s="42"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27"/>
       <c r="E31" s="35"/>
-      <c r="F31" s="62"/>
+      <c r="F31" s="42"/>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="26"/>
       <c r="D32" s="27"/>
       <c r="E32" s="35"/>
-      <c r="F32" s="62"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="27"/>
       <c r="C33" s="26"/>
       <c r="D33" s="27"/>
       <c r="E33" s="35"/>
-      <c r="F33" s="62"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="30"/>
     </row>
-    <row r="34" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="27"/>
       <c r="C34" s="26"/>
       <c r="D34" s="27"/>
       <c r="E34" s="35"/>
-      <c r="F34" s="62"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="30"/>
     </row>
-    <row r="35" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="27"/>
       <c r="C35" s="26"/>
       <c r="D35" s="27"/>
       <c r="E35" s="35"/>
-      <c r="F35" s="62"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="30"/>
     </row>
-    <row r="36" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
       <c r="B36" s="27"/>
       <c r="C36" s="26"/>
       <c r="D36" s="27"/>
       <c r="E36" s="35"/>
-      <c r="F36" s="62"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="30"/>
     </row>
-    <row r="37" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
       <c r="B37" s="27"/>
       <c r="C37" s="26"/>
       <c r="D37" s="27"/>
       <c r="E37" s="35"/>
-      <c r="F37" s="62"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
       <c r="B38" s="27"/>
       <c r="C38" s="26"/>
       <c r="D38" s="27"/>
       <c r="E38" s="35"/>
-      <c r="F38" s="62"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="27"/>
       <c r="C39" s="26"/>
       <c r="D39" s="27"/>
       <c r="E39" s="35"/>
-      <c r="F39" s="62"/>
+      <c r="F39" s="42"/>
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
       <c r="B40" s="27"/>
       <c r="C40" s="26"/>
       <c r="D40" s="27"/>
       <c r="E40" s="35"/>
-      <c r="F40" s="62"/>
+      <c r="F40" s="42"/>
       <c r="G40" s="30"/>
     </row>
-    <row r="41" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="26"/>
       <c r="B41" s="27"/>
       <c r="C41" s="26"/>
       <c r="D41" s="27"/>
       <c r="E41" s="35"/>
-      <c r="F41" s="62"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="30"/>
     </row>
-    <row r="42" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="26"/>
       <c r="B42" s="27"/>
       <c r="C42" s="26"/>
       <c r="D42" s="27"/>
       <c r="E42" s="35"/>
-      <c r="F42" s="62"/>
+      <c r="F42" s="42"/>
       <c r="G42" s="30"/>
     </row>
-    <row r="43" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
       <c r="C43" s="26"/>
       <c r="D43" s="27"/>
       <c r="E43" s="35"/>
-      <c r="F43" s="62"/>
+      <c r="F43" s="42"/>
       <c r="G43" s="30"/>
     </row>
-    <row r="44" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
       <c r="B44" s="27"/>
       <c r="C44" s="26"/>
       <c r="D44" s="27"/>
       <c r="E44" s="35"/>
-      <c r="F44" s="62"/>
+      <c r="F44" s="42"/>
       <c r="G44" s="30"/>
     </row>
-    <row r="45" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
       <c r="B45" s="27"/>
       <c r="C45" s="26"/>
       <c r="D45" s="27"/>
       <c r="E45" s="35"/>
-      <c r="F45" s="62"/>
+      <c r="F45" s="42"/>
       <c r="G45" s="30"/>
     </row>
-    <row r="46" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="26"/>
       <c r="B46" s="27"/>
       <c r="C46" s="26"/>
       <c r="D46" s="27"/>
       <c r="E46" s="35"/>
-      <c r="F46" s="62"/>
+      <c r="F46" s="42"/>
       <c r="G46" s="30"/>
     </row>
-    <row r="47" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
       <c r="B47" s="27"/>
       <c r="C47" s="26"/>
       <c r="D47" s="27"/>
       <c r="E47" s="35"/>
-      <c r="F47" s="62"/>
+      <c r="F47" s="42"/>
       <c r="G47" s="30"/>
     </row>
-    <row r="48" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
       <c r="B48" s="27"/>
       <c r="C48" s="26"/>
       <c r="D48" s="27"/>
       <c r="E48" s="35"/>
-      <c r="F48" s="62"/>
+      <c r="F48" s="42"/>
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
       <c r="B49" s="27"/>
       <c r="C49" s="26"/>
       <c r="D49" s="27"/>
       <c r="E49" s="35"/>
-      <c r="F49" s="62"/>
+      <c r="F49" s="42"/>
       <c r="G49" s="30"/>
     </row>
-    <row r="50" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
       <c r="B50" s="27"/>
       <c r="C50" s="26"/>
       <c r="D50" s="27"/>
       <c r="E50" s="35"/>
-      <c r="F50" s="62"/>
+      <c r="F50" s="42"/>
       <c r="G50" s="30"/>
     </row>
-    <row r="51" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="26"/>
       <c r="B51" s="27"/>
       <c r="C51" s="26"/>
       <c r="D51" s="27"/>
       <c r="E51" s="35"/>
-      <c r="F51" s="62"/>
+      <c r="F51" s="42"/>
       <c r="G51" s="30"/>
     </row>
-    <row r="52" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="26"/>
       <c r="B52" s="27"/>
       <c r="C52" s="26"/>
       <c r="D52" s="27"/>
       <c r="E52" s="35"/>
-      <c r="F52" s="62"/>
+      <c r="F52" s="42"/>
       <c r="G52" s="30"/>
     </row>
-    <row r="53" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="26"/>
       <c r="B53" s="27"/>
       <c r="C53" s="26"/>
       <c r="D53" s="27"/>
       <c r="E53" s="35"/>
-      <c r="F53" s="62"/>
+      <c r="F53" s="42"/>
       <c r="G53" s="30"/>
     </row>
-    <row r="54" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="26"/>
       <c r="B54" s="27"/>
       <c r="C54" s="26"/>
       <c r="D54" s="27"/>
       <c r="E54" s="35"/>
-      <c r="F54" s="62"/>
+      <c r="F54" s="42"/>
       <c r="G54" s="30"/>
     </row>
-    <row r="55" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="26"/>
       <c r="B55" s="27"/>
       <c r="C55" s="26"/>
       <c r="D55" s="27"/>
       <c r="E55" s="35"/>
-      <c r="F55" s="62"/>
+      <c r="F55" s="42"/>
       <c r="G55" s="30"/>
     </row>
-    <row r="56" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="26"/>
       <c r="B56" s="27"/>
       <c r="C56" s="26"/>
       <c r="D56" s="27"/>
       <c r="E56" s="35"/>
-      <c r="F56" s="62"/>
+      <c r="F56" s="42"/>
       <c r="G56" s="30"/>
     </row>
-    <row r="57" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="26"/>
       <c r="B57" s="27"/>
       <c r="C57" s="26"/>
       <c r="D57" s="27"/>
       <c r="E57" s="35"/>
-      <c r="F57" s="62"/>
+      <c r="F57" s="42"/>
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="26"/>
       <c r="B58" s="27"/>
       <c r="C58" s="26"/>
       <c r="D58" s="27"/>
       <c r="E58" s="35"/>
-      <c r="F58" s="62"/>
+      <c r="F58" s="42"/>
       <c r="G58" s="30"/>
     </row>
-    <row r="59" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="26"/>
       <c r="B59" s="27"/>
       <c r="C59" s="26"/>
       <c r="D59" s="27"/>
       <c r="E59" s="35"/>
-      <c r="F59" s="62"/>
+      <c r="F59" s="42"/>
       <c r="G59" s="30"/>
     </row>
-    <row r="60" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="26"/>
       <c r="B60" s="27"/>
       <c r="C60" s="26"/>
       <c r="D60" s="27"/>
       <c r="E60" s="35"/>
-      <c r="F60" s="62"/>
+      <c r="F60" s="42"/>
       <c r="G60" s="30"/>
     </row>
-    <row r="61" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="26"/>
       <c r="B61" s="26"/>
       <c r="C61" s="26"/>
@@ -3652,7 +3652,7 @@
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
     </row>
-    <row r="62" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="26"/>
       <c r="B62" s="26"/>
       <c r="C62" s="26"/>
@@ -3661,7 +3661,7 @@
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
     </row>
-    <row r="63" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="26"/>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
@@ -3670,7 +3670,7 @@
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
     </row>
-    <row r="64" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26"/>
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
@@ -3679,7 +3679,7 @@
       <c r="F64" s="26"/>
       <c r="G64" s="26"/>
     </row>
-    <row r="65" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26"/>
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
@@ -3688,7 +3688,7 @@
       <c r="F65" s="26"/>
       <c r="G65" s="26"/>
     </row>
-    <row r="66" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26"/>
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
@@ -3697,7 +3697,7 @@
       <c r="F66" s="26"/>
       <c r="G66" s="26"/>
     </row>
-    <row r="67" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="26"/>
       <c r="B67" s="26"/>
       <c r="C67" s="26"/>
@@ -3706,7 +3706,7 @@
       <c r="F67" s="26"/>
       <c r="G67" s="26"/>
     </row>
-    <row r="68" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="26"/>
       <c r="B68" s="26"/>
       <c r="C68" s="26"/>
@@ -3715,7 +3715,7 @@
       <c r="F68" s="26"/>
       <c r="G68" s="26"/>
     </row>
-    <row r="69" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="26"/>
       <c r="B69" s="26"/>
       <c r="C69" s="26"/>
@@ -3724,7 +3724,7 @@
       <c r="F69" s="26"/>
       <c r="G69" s="26"/>
     </row>
-    <row r="70" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="26"/>
       <c r="B70" s="26"/>
       <c r="C70" s="26"/>
@@ -3733,7 +3733,7 @@
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
     </row>
-    <row r="71" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="26"/>
       <c r="B71" s="26"/>
       <c r="C71" s="26"/>
@@ -3742,7 +3742,7 @@
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
     </row>
-    <row r="72" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="26"/>
       <c r="B72" s="26"/>
       <c r="C72" s="26"/>
@@ -3751,7 +3751,7 @@
       <c r="F72" s="26"/>
       <c r="G72" s="26"/>
     </row>
-    <row r="73" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="26"/>
       <c r="B73" s="26"/>
       <c r="C73" s="26"/>
@@ -3760,7 +3760,7 @@
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
     </row>
-    <row r="74" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="26"/>
       <c r="B74" s="26"/>
       <c r="C74" s="26"/>
@@ -3769,7 +3769,7 @@
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
     </row>
-    <row r="75" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="26"/>
       <c r="B75" s="26"/>
       <c r="C75" s="26"/>
@@ -3778,7 +3778,7 @@
       <c r="F75" s="26"/>
       <c r="G75" s="26"/>
     </row>
-    <row r="76" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="26"/>
       <c r="B76" s="26"/>
       <c r="C76" s="26"/>
@@ -3787,7 +3787,7 @@
       <c r="F76" s="26"/>
       <c r="G76" s="26"/>
     </row>
-    <row r="77" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="26"/>
       <c r="B77" s="26"/>
       <c r="C77" s="26"/>
@@ -3796,7 +3796,7 @@
       <c r="F77" s="26"/>
       <c r="G77" s="26"/>
     </row>
-    <row r="78" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="26"/>
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
@@ -3805,7 +3805,7 @@
       <c r="F78" s="26"/>
       <c r="G78" s="26"/>
     </row>
-    <row r="79" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="26"/>
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
@@ -3814,7 +3814,7 @@
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
     </row>
-    <row r="80" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="26"/>
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
@@ -3823,7 +3823,7 @@
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
     </row>
-    <row r="81" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
       <c r="C81" s="26"/>
@@ -3832,7 +3832,7 @@
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
     </row>
-    <row r="82" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
       <c r="C82" s="26"/>
@@ -3841,7 +3841,7 @@
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
     </row>
-    <row r="83" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="26"/>
       <c r="B83" s="26"/>
       <c r="C83" s="26"/>
@@ -3850,7 +3850,7 @@
       <c r="F83" s="26"/>
       <c r="G83" s="26"/>
     </row>
-    <row r="84" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="26"/>
       <c r="B84" s="26"/>
       <c r="C84" s="26"/>
@@ -3859,7 +3859,7 @@
       <c r="F84" s="26"/>
       <c r="G84" s="26"/>
     </row>
-    <row r="85" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="26"/>
       <c r="B85" s="26"/>
       <c r="C85" s="26"/>
@@ -3868,7 +3868,7 @@
       <c r="F85" s="26"/>
       <c r="G85" s="26"/>
     </row>
-    <row r="86" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="26"/>
       <c r="B86" s="26"/>
       <c r="C86" s="26"/>
@@ -3877,7 +3877,7 @@
       <c r="F86" s="26"/>
       <c r="G86" s="26"/>
     </row>
-    <row r="87" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="26"/>
       <c r="B87" s="26"/>
       <c r="C87" s="26"/>
@@ -3886,7 +3886,7 @@
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
     </row>
-    <row r="88" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="26"/>
       <c r="B88" s="26"/>
       <c r="C88" s="26"/>
@@ -3895,7 +3895,7 @@
       <c r="F88" s="26"/>
       <c r="G88" s="26"/>
     </row>
-    <row r="89" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="26"/>
       <c r="B89" s="26"/>
       <c r="C89" s="26"/>
@@ -3904,7 +3904,7 @@
       <c r="F89" s="26"/>
       <c r="G89" s="26"/>
     </row>
-    <row r="90" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="26"/>
       <c r="B90" s="26"/>
       <c r="C90" s="26"/>
@@ -3913,7 +3913,7 @@
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
     </row>
-    <row r="91" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="26"/>
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
@@ -3922,7 +3922,7 @@
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
     </row>
-    <row r="92" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="26"/>
       <c r="B92" s="26"/>
       <c r="C92" s="26"/>
@@ -3931,7 +3931,7 @@
       <c r="F92" s="26"/>
       <c r="G92" s="26"/>
     </row>
-    <row r="93" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="26"/>
       <c r="B93" s="26"/>
       <c r="C93" s="26"/>
@@ -3940,7 +3940,7 @@
       <c r="F93" s="26"/>
       <c r="G93" s="26"/>
     </row>
-    <row r="94" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="26"/>
       <c r="B94" s="26"/>
       <c r="C94" s="26"/>
@@ -3949,7 +3949,7 @@
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
     </row>
-    <row r="95" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="26"/>
       <c r="B95" s="26"/>
       <c r="C95" s="26"/>
@@ -3958,7 +3958,7 @@
       <c r="F95" s="26"/>
       <c r="G95" s="26"/>
     </row>
-    <row r="96" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="26"/>
       <c r="B96" s="26"/>
       <c r="C96" s="26"/>
@@ -3967,7 +3967,7 @@
       <c r="F96" s="26"/>
       <c r="G96" s="26"/>
     </row>
-    <row r="97" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="26"/>
       <c r="B97" s="26"/>
       <c r="C97" s="26"/>
@@ -3976,7 +3976,7 @@
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
     </row>
-    <row r="98" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="26"/>
       <c r="B98" s="26"/>
       <c r="C98" s="26"/>
@@ -3985,7 +3985,7 @@
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
     </row>
-    <row r="99" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="26"/>
       <c r="B99" s="26"/>
       <c r="C99" s="26"/>
@@ -3994,7 +3994,7 @@
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
     </row>
-    <row r="100" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="26"/>
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
@@ -4087,34 +4087,34 @@
       <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="49" t="str">
+      <c r="B4" s="56" t="str">
         <f>'Cover Sheet'!B6&amp;"/"&amp;'Cover Sheet'!B7</f>
         <v>&lt;ricefw_id&gt;/&lt;ricefw_name&gt;</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:9" s="21" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:9" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
@@ -4335,30 +4335,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="57" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="57"/>
+    <col min="1" max="1" width="18.85546875" style="37" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="37" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="38" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="59"/>
+      <c r="B8" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4376,33 +4376,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="99442fa1-b030-4a0c-a9a1-2d427f9046da" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9ef57f-2eae-415f-9583-638ca9fe1a2e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="99442fa1-b030-4a0c-a9a1-2d427f9046da">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005728D1A9E76DEE4AB150F9665B6E32DE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b3c4b560ffc9e8717465e4e3b6c07aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b9ef57f-2eae-415f-9583-638ca9fe1a2e" xmlns:ns3="99442fa1-b030-4a0c-a9a1-2d427f9046da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5214ce83a59b096b02a6144a3473480" ns2:_="" ns3:_="">
     <xsd:import namespace="3b9ef57f-2eae-415f-9583-638ca9fe1a2e"/>
@@ -4639,10 +4612,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="99442fa1-b030-4a0c-a9a1-2d427f9046da" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9ef57f-2eae-415f-9583-638ca9fe1a2e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="99442fa1-b030-4a0c-a9a1-2d427f9046da">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{707FE0EB-7438-4833-B449-E9FA16D2AE49}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09BF4FDF-60BE-42FB-863A-D956A4C8DB30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3b9ef57f-2eae-415f-9583-638ca9fe1a2e"/>
+    <ds:schemaRef ds:uri="99442fa1-b030-4a0c-a9a1-2d427f9046da"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4661,20 +4672,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09BF4FDF-60BE-42FB-863A-D956A4C8DB30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{707FE0EB-7438-4833-B449-E9FA16D2AE49}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3b9ef57f-2eae-415f-9583-638ca9fe1a2e"/>
-    <ds:schemaRef ds:uri="99442fa1-b030-4a0c-a9a1-2d427f9046da"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/template/template_ctp.xlsx
+++ b/template/template_ctp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Developer\ut\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E81B1A-4059-4EF3-A1FC-66E4BEB7AA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B41D44-5DF0-4951-8FC4-E56935A5451B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="677" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,7 +256,7 @@
     <numFmt numFmtId="187" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="188" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -597,12 +597,6 @@
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
-      <name val="Leelawadee"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Leelawadee"/>
       <family val="2"/>
     </font>
@@ -1458,7 +1452,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="41" fillId="77" borderId="0" xfId="67" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="42" fillId="77" borderId="0" xfId="67" applyFont="1" applyFill="1"/>
@@ -1552,24 +1546,18 @@
     <xf numFmtId="0" fontId="42" fillId="81" borderId="10" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="80" borderId="10" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="77" borderId="10" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="77" borderId="10" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1629,6 +1617,24 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="77" borderId="13" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="77" borderId="10" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="77" borderId="10" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="80" borderId="10" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="77" borderId="10" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="77" borderId="10" xfId="115" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="118">
@@ -2712,88 +2718,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -2802,14 +2808,14 @@
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="53"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -2818,182 +2824,182 @@
       <c r="B12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="54" t="s">
+      <c r="D12" s="41"/>
+      <c r="E12" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="55"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -3074,10 +3080,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I254"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3128,34 +3134,34 @@
       <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="56" t="str">
+      <c r="B4" s="54" t="str">
         <f>'Cover Sheet'!B6&amp;"/"&amp;'Cover Sheet'!B7</f>
         <v>&lt;ricefw_id&gt;/&lt;ricefw_name&gt;</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
     </row>
     <row r="5" spans="1:9" s="21" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" spans="1:9" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
@@ -3190,824 +3196,2227 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:9" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="27"/>
-      <c r="C9" s="26"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="42"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="27"/>
-      <c r="C10" s="26"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="42"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="27"/>
-      <c r="C11" s="26"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="42"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="27"/>
-      <c r="C12" s="26"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="40"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="27"/>
-      <c r="C13" s="26"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="42"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="65"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="27"/>
-      <c r="C14" s="26"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="42"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="65"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="27"/>
-      <c r="C15" s="26"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="42"/>
-    </row>
-    <row r="16" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="30"/>
-    </row>
-    <row r="30" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="30"/>
-    </row>
-    <row r="32" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="30"/>
-    </row>
-    <row r="33" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="30"/>
-    </row>
-    <row r="34" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="30"/>
-    </row>
-    <row r="35" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="30"/>
-    </row>
-    <row r="36" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="30"/>
-    </row>
-    <row r="37" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="30"/>
-    </row>
-    <row r="38" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="30"/>
-    </row>
-    <row r="39" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="26"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="30"/>
-    </row>
-    <row r="40" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="30"/>
-    </row>
-    <row r="41" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="26"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="30"/>
-    </row>
-    <row r="42" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="30"/>
-    </row>
-    <row r="43" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="30"/>
-    </row>
-    <row r="44" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="30"/>
-    </row>
-    <row r="45" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="26"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="30"/>
-    </row>
-    <row r="46" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="26"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="30"/>
-    </row>
-    <row r="47" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="30"/>
-    </row>
-    <row r="48" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="30"/>
-    </row>
-    <row r="49" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="30"/>
-    </row>
-    <row r="50" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="26"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="30"/>
-    </row>
-    <row r="51" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="26"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="30"/>
-    </row>
-    <row r="52" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="26"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="30"/>
-    </row>
-    <row r="53" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="26"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="30"/>
-    </row>
-    <row r="54" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="26"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="30"/>
-    </row>
-    <row r="55" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="26"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="30"/>
-    </row>
-    <row r="56" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="26"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="30"/>
-    </row>
-    <row r="57" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="26"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="30"/>
-    </row>
-    <row r="58" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="26"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="30"/>
-    </row>
-    <row r="59" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="26"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="30"/>
-    </row>
-    <row r="60" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="26"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="30"/>
-    </row>
-    <row r="61" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-    </row>
-    <row r="62" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-    </row>
-    <row r="63" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-    </row>
-    <row r="64" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-    </row>
-    <row r="65" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-    </row>
-    <row r="66" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-    </row>
-    <row r="67" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-    </row>
-    <row r="68" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-    </row>
-    <row r="69" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-    </row>
-    <row r="70" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-    </row>
-    <row r="71" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-    </row>
-    <row r="72" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-    </row>
-    <row r="73" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-    </row>
-    <row r="74" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-    </row>
-    <row r="75" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-    </row>
-    <row r="76" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-    </row>
-    <row r="77" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-    </row>
-    <row r="78" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-    </row>
-    <row r="79" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-    </row>
-    <row r="80" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-    </row>
-    <row r="81" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-    </row>
-    <row r="82" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-    </row>
-    <row r="83" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-    </row>
-    <row r="84" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-    </row>
-    <row r="85" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-    </row>
-    <row r="86" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-    </row>
-    <row r="87" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-    </row>
-    <row r="88" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-    </row>
-    <row r="89" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-    </row>
-    <row r="90" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-    </row>
-    <row r="91" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-    </row>
-    <row r="92" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-    </row>
-    <row r="93" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-    </row>
-    <row r="94" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-    </row>
-    <row r="95" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-    </row>
-    <row r="96" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-    </row>
-    <row r="97" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-    </row>
-    <row r="98" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-    </row>
-    <row r="99" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="26"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-    </row>
-    <row r="100" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="26"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="65"/>
+    </row>
+    <row r="16" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="65"/>
+    </row>
+    <row r="17" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="65"/>
+    </row>
+    <row r="18" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="61"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="65"/>
+    </row>
+    <row r="19" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="65"/>
+    </row>
+    <row r="20" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="65"/>
+    </row>
+    <row r="21" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="61"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="65"/>
+    </row>
+    <row r="22" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="65"/>
+    </row>
+    <row r="23" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="65"/>
+    </row>
+    <row r="24" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="65"/>
+    </row>
+    <row r="25" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="65"/>
+    </row>
+    <row r="26" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="65"/>
+    </row>
+    <row r="27" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="65"/>
+    </row>
+    <row r="28" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="65"/>
+    </row>
+    <row r="29" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="65"/>
+    </row>
+    <row r="30" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="65"/>
+    </row>
+    <row r="31" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="65"/>
+    </row>
+    <row r="32" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="65"/>
+    </row>
+    <row r="33" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="65"/>
+    </row>
+    <row r="34" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="65"/>
+    </row>
+    <row r="35" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="61"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="65"/>
+    </row>
+    <row r="36" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="61"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="65"/>
+    </row>
+    <row r="37" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="61"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="65"/>
+    </row>
+    <row r="38" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="61"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="65"/>
+    </row>
+    <row r="39" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="61"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="65"/>
+    </row>
+    <row r="40" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="61"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="65"/>
+    </row>
+    <row r="41" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="61"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="65"/>
+    </row>
+    <row r="42" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="61"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="65"/>
+    </row>
+    <row r="43" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="61"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="65"/>
+    </row>
+    <row r="44" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="61"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="65"/>
+    </row>
+    <row r="45" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="61"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="65"/>
+    </row>
+    <row r="46" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="61"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="65"/>
+    </row>
+    <row r="47" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="61"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="65"/>
+    </row>
+    <row r="48" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="61"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="65"/>
+    </row>
+    <row r="49" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="61"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="65"/>
+    </row>
+    <row r="50" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="61"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="65"/>
+    </row>
+    <row r="51" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="61"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="65"/>
+    </row>
+    <row r="52" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="61"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="65"/>
+    </row>
+    <row r="53" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="61"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="65"/>
+    </row>
+    <row r="54" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="61"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="65"/>
+    </row>
+    <row r="55" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="61"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="65"/>
+    </row>
+    <row r="56" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="61"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="65"/>
+    </row>
+    <row r="57" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="61"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="65"/>
+    </row>
+    <row r="58" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="61"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="65"/>
+    </row>
+    <row r="59" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="61"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="65"/>
+    </row>
+    <row r="60" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="61"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="65"/>
+    </row>
+    <row r="61" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="61"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+    </row>
+    <row r="62" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="61"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+    </row>
+    <row r="63" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="61"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+    </row>
+    <row r="64" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+    </row>
+    <row r="65" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="61"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+    </row>
+    <row r="66" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+    </row>
+    <row r="67" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="61"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+    </row>
+    <row r="68" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="61"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+    </row>
+    <row r="69" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="61"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="61"/>
+    </row>
+    <row r="70" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="61"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
+    </row>
+    <row r="71" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="61"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
+    </row>
+    <row r="72" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="61"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+    </row>
+    <row r="73" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="61"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+    </row>
+    <row r="74" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="61"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
+    </row>
+    <row r="75" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="61"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+    </row>
+    <row r="76" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="61"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+    </row>
+    <row r="77" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="61"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+    </row>
+    <row r="78" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="61"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
+    </row>
+    <row r="79" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="61"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
+    </row>
+    <row r="80" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="61"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+    </row>
+    <row r="81" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="61"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+    </row>
+    <row r="82" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="61"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+    </row>
+    <row r="83" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="61"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
+    </row>
+    <row r="84" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="61"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+    </row>
+    <row r="85" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="61"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
+    </row>
+    <row r="86" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="61"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+    </row>
+    <row r="87" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="61"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+    </row>
+    <row r="88" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="61"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="61"/>
+    </row>
+    <row r="89" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="61"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
+    </row>
+    <row r="90" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="61"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+    </row>
+    <row r="91" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="61"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
+    </row>
+    <row r="92" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="61"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+    </row>
+    <row r="93" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="61"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="61"/>
+    </row>
+    <row r="94" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="61"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="61"/>
+    </row>
+    <row r="95" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="61"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="61"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="61"/>
+    </row>
+    <row r="96" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="61"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="61"/>
+    </row>
+    <row r="97" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="61"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="61"/>
+    </row>
+    <row r="98" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="61"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="61"/>
+    </row>
+    <row r="99" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="61"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="61"/>
+    </row>
+    <row r="100" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="61"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="G101" s="26"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="61"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="65"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="61"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="66"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="65"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="61"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="65"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="61"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="66"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="65"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="61"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
+      <c r="G106" s="65"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="61"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="61"/>
+      <c r="G107" s="65"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="61"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="65"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="61"/>
+      <c r="B109" s="66"/>
+      <c r="C109" s="66"/>
+      <c r="D109" s="62"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="61"/>
+      <c r="G109" s="65"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="61"/>
+      <c r="B110" s="66"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="65"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="61"/>
+      <c r="B111" s="66"/>
+      <c r="C111" s="66"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="61"/>
+      <c r="F111" s="61"/>
+      <c r="G111" s="65"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="61"/>
+      <c r="B112" s="66"/>
+      <c r="C112" s="66"/>
+      <c r="D112" s="62"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
+      <c r="G112" s="65"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="61"/>
+      <c r="B113" s="66"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="65"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="61"/>
+      <c r="B114" s="66"/>
+      <c r="C114" s="66"/>
+      <c r="D114" s="62"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="65"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="61"/>
+      <c r="B115" s="66"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="62"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="61"/>
+      <c r="G115" s="65"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="61"/>
+      <c r="B116" s="66"/>
+      <c r="C116" s="66"/>
+      <c r="D116" s="62"/>
+      <c r="E116" s="61"/>
+      <c r="F116" s="61"/>
+      <c r="G116" s="65"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="61"/>
+      <c r="B117" s="66"/>
+      <c r="C117" s="66"/>
+      <c r="D117" s="62"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="61"/>
+      <c r="G117" s="65"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="61"/>
+      <c r="B118" s="66"/>
+      <c r="C118" s="66"/>
+      <c r="D118" s="62"/>
+      <c r="E118" s="61"/>
+      <c r="F118" s="61"/>
+      <c r="G118" s="65"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="61"/>
+      <c r="B119" s="66"/>
+      <c r="C119" s="66"/>
+      <c r="D119" s="62"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="61"/>
+      <c r="G119" s="65"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="61"/>
+      <c r="B120" s="66"/>
+      <c r="C120" s="66"/>
+      <c r="D120" s="62"/>
+      <c r="E120" s="61"/>
+      <c r="F120" s="61"/>
+      <c r="G120" s="65"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="61"/>
+      <c r="B121" s="66"/>
+      <c r="C121" s="66"/>
+      <c r="D121" s="62"/>
+      <c r="E121" s="61"/>
+      <c r="F121" s="61"/>
+      <c r="G121" s="65"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="61"/>
+      <c r="B122" s="66"/>
+      <c r="C122" s="66"/>
+      <c r="D122" s="62"/>
+      <c r="E122" s="61"/>
+      <c r="F122" s="61"/>
+      <c r="G122" s="65"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="61"/>
+      <c r="B123" s="66"/>
+      <c r="C123" s="66"/>
+      <c r="D123" s="62"/>
+      <c r="E123" s="61"/>
+      <c r="F123" s="61"/>
+      <c r="G123" s="65"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="61"/>
+      <c r="B124" s="66"/>
+      <c r="C124" s="66"/>
+      <c r="D124" s="62"/>
+      <c r="E124" s="61"/>
+      <c r="F124" s="61"/>
+      <c r="G124" s="65"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="61"/>
+      <c r="B125" s="66"/>
+      <c r="C125" s="66"/>
+      <c r="D125" s="62"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="65"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="61"/>
+      <c r="B126" s="66"/>
+      <c r="C126" s="66"/>
+      <c r="D126" s="62"/>
+      <c r="E126" s="61"/>
+      <c r="F126" s="61"/>
+      <c r="G126" s="65"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="61"/>
+      <c r="B127" s="66"/>
+      <c r="C127" s="66"/>
+      <c r="D127" s="62"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="65"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="61"/>
+      <c r="B128" s="66"/>
+      <c r="C128" s="66"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="61"/>
+      <c r="G128" s="65"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="61"/>
+      <c r="B129" s="66"/>
+      <c r="C129" s="66"/>
+      <c r="D129" s="62"/>
+      <c r="E129" s="61"/>
+      <c r="F129" s="61"/>
+      <c r="G129" s="65"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="61"/>
+      <c r="B130" s="66"/>
+      <c r="C130" s="66"/>
+      <c r="D130" s="62"/>
+      <c r="E130" s="61"/>
+      <c r="F130" s="61"/>
+      <c r="G130" s="65"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="61"/>
+      <c r="B131" s="66"/>
+      <c r="C131" s="66"/>
+      <c r="D131" s="62"/>
+      <c r="E131" s="61"/>
+      <c r="F131" s="61"/>
+      <c r="G131" s="65"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="61"/>
+      <c r="B132" s="66"/>
+      <c r="C132" s="66"/>
+      <c r="D132" s="62"/>
+      <c r="E132" s="61"/>
+      <c r="F132" s="61"/>
+      <c r="G132" s="65"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="61"/>
+      <c r="B133" s="66"/>
+      <c r="C133" s="66"/>
+      <c r="D133" s="62"/>
+      <c r="E133" s="61"/>
+      <c r="F133" s="61"/>
+      <c r="G133" s="65"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="61"/>
+      <c r="B134" s="66"/>
+      <c r="C134" s="66"/>
+      <c r="D134" s="62"/>
+      <c r="E134" s="61"/>
+      <c r="F134" s="61"/>
+      <c r="G134" s="65"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="61"/>
+      <c r="B135" s="66"/>
+      <c r="C135" s="66"/>
+      <c r="D135" s="62"/>
+      <c r="E135" s="61"/>
+      <c r="F135" s="61"/>
+      <c r="G135" s="65"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="61"/>
+      <c r="B136" s="66"/>
+      <c r="C136" s="66"/>
+      <c r="D136" s="62"/>
+      <c r="E136" s="61"/>
+      <c r="F136" s="61"/>
+      <c r="G136" s="65"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="61"/>
+      <c r="B137" s="66"/>
+      <c r="C137" s="66"/>
+      <c r="D137" s="62"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="61"/>
+      <c r="G137" s="65"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="61"/>
+      <c r="B138" s="66"/>
+      <c r="C138" s="66"/>
+      <c r="D138" s="62"/>
+      <c r="E138" s="61"/>
+      <c r="F138" s="61"/>
+      <c r="G138" s="65"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="61"/>
+      <c r="B139" s="66"/>
+      <c r="C139" s="66"/>
+      <c r="D139" s="62"/>
+      <c r="E139" s="61"/>
+      <c r="F139" s="61"/>
+      <c r="G139" s="65"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="61"/>
+      <c r="B140" s="66"/>
+      <c r="C140" s="66"/>
+      <c r="D140" s="62"/>
+      <c r="E140" s="61"/>
+      <c r="F140" s="61"/>
+      <c r="G140" s="65"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="61"/>
+      <c r="B141" s="66"/>
+      <c r="C141" s="66"/>
+      <c r="D141" s="62"/>
+      <c r="E141" s="61"/>
+      <c r="F141" s="61"/>
+      <c r="G141" s="65"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="61"/>
+      <c r="B142" s="66"/>
+      <c r="C142" s="66"/>
+      <c r="D142" s="62"/>
+      <c r="E142" s="61"/>
+      <c r="F142" s="61"/>
+      <c r="G142" s="65"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="61"/>
+      <c r="B143" s="66"/>
+      <c r="C143" s="66"/>
+      <c r="D143" s="62"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="61"/>
+      <c r="G143" s="65"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="61"/>
+      <c r="B144" s="66"/>
+      <c r="C144" s="66"/>
+      <c r="D144" s="62"/>
+      <c r="E144" s="61"/>
+      <c r="F144" s="61"/>
+      <c r="G144" s="65"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="61"/>
+      <c r="B145" s="66"/>
+      <c r="C145" s="66"/>
+      <c r="D145" s="62"/>
+      <c r="E145" s="61"/>
+      <c r="F145" s="61"/>
+      <c r="G145" s="65"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="61"/>
+      <c r="B146" s="66"/>
+      <c r="C146" s="66"/>
+      <c r="D146" s="62"/>
+      <c r="E146" s="61"/>
+      <c r="F146" s="61"/>
+      <c r="G146" s="65"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="61"/>
+      <c r="B147" s="66"/>
+      <c r="C147" s="66"/>
+      <c r="D147" s="62"/>
+      <c r="E147" s="61"/>
+      <c r="F147" s="61"/>
+      <c r="G147" s="65"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="61"/>
+      <c r="B148" s="66"/>
+      <c r="C148" s="66"/>
+      <c r="D148" s="62"/>
+      <c r="E148" s="61"/>
+      <c r="F148" s="61"/>
+      <c r="G148" s="65"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="61"/>
+      <c r="B149" s="66"/>
+      <c r="C149" s="66"/>
+      <c r="D149" s="62"/>
+      <c r="E149" s="61"/>
+      <c r="F149" s="61"/>
+      <c r="G149" s="65"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="61"/>
+      <c r="B150" s="66"/>
+      <c r="C150" s="66"/>
+      <c r="D150" s="62"/>
+      <c r="E150" s="61"/>
+      <c r="F150" s="61"/>
+      <c r="G150" s="65"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="61"/>
+      <c r="B151" s="66"/>
+      <c r="C151" s="66"/>
+      <c r="D151" s="62"/>
+      <c r="E151" s="61"/>
+      <c r="F151" s="61"/>
+      <c r="G151" s="65"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="61"/>
+      <c r="B152" s="66"/>
+      <c r="C152" s="66"/>
+      <c r="D152" s="62"/>
+      <c r="E152" s="61"/>
+      <c r="F152" s="61"/>
+      <c r="G152" s="65"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="61"/>
+      <c r="B153" s="66"/>
+      <c r="C153" s="66"/>
+      <c r="D153" s="62"/>
+      <c r="E153" s="61"/>
+      <c r="F153" s="61"/>
+      <c r="G153" s="65"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="61"/>
+      <c r="B154" s="66"/>
+      <c r="C154" s="66"/>
+      <c r="D154" s="62"/>
+      <c r="E154" s="61"/>
+      <c r="F154" s="61"/>
+      <c r="G154" s="65"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="61"/>
+      <c r="B155" s="66"/>
+      <c r="C155" s="66"/>
+      <c r="D155" s="62"/>
+      <c r="E155" s="61"/>
+      <c r="F155" s="61"/>
+      <c r="G155" s="65"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="61"/>
+      <c r="B156" s="66"/>
+      <c r="C156" s="66"/>
+      <c r="D156" s="62"/>
+      <c r="E156" s="61"/>
+      <c r="F156" s="61"/>
+      <c r="G156" s="65"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="61"/>
+      <c r="B157" s="66"/>
+      <c r="C157" s="66"/>
+      <c r="D157" s="62"/>
+      <c r="E157" s="61"/>
+      <c r="F157" s="61"/>
+      <c r="G157" s="65"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="61"/>
+      <c r="B158" s="66"/>
+      <c r="C158" s="66"/>
+      <c r="D158" s="62"/>
+      <c r="E158" s="61"/>
+      <c r="F158" s="61"/>
+      <c r="G158" s="65"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="61"/>
+      <c r="B159" s="66"/>
+      <c r="C159" s="66"/>
+      <c r="D159" s="62"/>
+      <c r="E159" s="61"/>
+      <c r="F159" s="61"/>
+      <c r="G159" s="65"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="61"/>
+      <c r="B160" s="66"/>
+      <c r="C160" s="66"/>
+      <c r="D160" s="62"/>
+      <c r="E160" s="61"/>
+      <c r="F160" s="61"/>
+      <c r="G160" s="65"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="61"/>
+      <c r="B161" s="66"/>
+      <c r="C161" s="66"/>
+      <c r="D161" s="62"/>
+      <c r="E161" s="61"/>
+      <c r="F161" s="61"/>
+      <c r="G161" s="65"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="61"/>
+      <c r="B162" s="66"/>
+      <c r="C162" s="66"/>
+      <c r="D162" s="62"/>
+      <c r="E162" s="61"/>
+      <c r="F162" s="61"/>
+      <c r="G162" s="65"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="61"/>
+      <c r="B163" s="66"/>
+      <c r="C163" s="66"/>
+      <c r="D163" s="62"/>
+      <c r="E163" s="61"/>
+      <c r="F163" s="61"/>
+      <c r="G163" s="65"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="61"/>
+      <c r="B164" s="66"/>
+      <c r="C164" s="66"/>
+      <c r="D164" s="62"/>
+      <c r="E164" s="61"/>
+      <c r="F164" s="61"/>
+      <c r="G164" s="65"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="61"/>
+      <c r="B165" s="66"/>
+      <c r="C165" s="66"/>
+      <c r="D165" s="62"/>
+      <c r="E165" s="61"/>
+      <c r="F165" s="61"/>
+      <c r="G165" s="65"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="61"/>
+      <c r="B166" s="66"/>
+      <c r="C166" s="66"/>
+      <c r="D166" s="62"/>
+      <c r="E166" s="61"/>
+      <c r="F166" s="61"/>
+      <c r="G166" s="65"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="61"/>
+      <c r="B167" s="66"/>
+      <c r="C167" s="66"/>
+      <c r="D167" s="62"/>
+      <c r="E167" s="61"/>
+      <c r="F167" s="61"/>
+      <c r="G167" s="65"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="61"/>
+      <c r="B168" s="66"/>
+      <c r="C168" s="66"/>
+      <c r="D168" s="62"/>
+      <c r="E168" s="61"/>
+      <c r="F168" s="61"/>
+      <c r="G168" s="65"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="61"/>
+      <c r="B169" s="66"/>
+      <c r="C169" s="66"/>
+      <c r="D169" s="62"/>
+      <c r="E169" s="61"/>
+      <c r="F169" s="61"/>
+      <c r="G169" s="65"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="61"/>
+      <c r="B170" s="66"/>
+      <c r="C170" s="66"/>
+      <c r="D170" s="62"/>
+      <c r="E170" s="61"/>
+      <c r="F170" s="61"/>
+      <c r="G170" s="65"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="61"/>
+      <c r="B171" s="66"/>
+      <c r="C171" s="66"/>
+      <c r="D171" s="62"/>
+      <c r="E171" s="61"/>
+      <c r="F171" s="61"/>
+      <c r="G171" s="65"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="61"/>
+      <c r="B172" s="66"/>
+      <c r="C172" s="66"/>
+      <c r="D172" s="62"/>
+      <c r="E172" s="61"/>
+      <c r="F172" s="61"/>
+      <c r="G172" s="65"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="61"/>
+      <c r="B173" s="66"/>
+      <c r="C173" s="66"/>
+      <c r="D173" s="62"/>
+      <c r="E173" s="61"/>
+      <c r="F173" s="61"/>
+      <c r="G173" s="65"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="61"/>
+      <c r="B174" s="66"/>
+      <c r="C174" s="66"/>
+      <c r="D174" s="62"/>
+      <c r="E174" s="61"/>
+      <c r="F174" s="61"/>
+      <c r="G174" s="65"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="61"/>
+      <c r="B175" s="66"/>
+      <c r="C175" s="66"/>
+      <c r="D175" s="62"/>
+      <c r="E175" s="61"/>
+      <c r="F175" s="61"/>
+      <c r="G175" s="65"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="61"/>
+      <c r="B176" s="66"/>
+      <c r="C176" s="66"/>
+      <c r="D176" s="62"/>
+      <c r="E176" s="61"/>
+      <c r="F176" s="61"/>
+      <c r="G176" s="65"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="61"/>
+      <c r="B177" s="66"/>
+      <c r="C177" s="66"/>
+      <c r="D177" s="62"/>
+      <c r="E177" s="61"/>
+      <c r="F177" s="61"/>
+      <c r="G177" s="65"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="61"/>
+      <c r="B178" s="66"/>
+      <c r="C178" s="66"/>
+      <c r="D178" s="62"/>
+      <c r="E178" s="61"/>
+      <c r="F178" s="61"/>
+      <c r="G178" s="65"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="61"/>
+      <c r="B179" s="66"/>
+      <c r="C179" s="66"/>
+      <c r="D179" s="62"/>
+      <c r="E179" s="61"/>
+      <c r="F179" s="61"/>
+      <c r="G179" s="65"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="61"/>
+      <c r="B180" s="66"/>
+      <c r="C180" s="66"/>
+      <c r="D180" s="62"/>
+      <c r="E180" s="61"/>
+      <c r="F180" s="61"/>
+      <c r="G180" s="65"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="61"/>
+      <c r="B181" s="66"/>
+      <c r="C181" s="66"/>
+      <c r="D181" s="62"/>
+      <c r="E181" s="61"/>
+      <c r="F181" s="61"/>
+      <c r="G181" s="65"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="61"/>
+      <c r="B182" s="66"/>
+      <c r="C182" s="66"/>
+      <c r="D182" s="62"/>
+      <c r="E182" s="61"/>
+      <c r="F182" s="61"/>
+      <c r="G182" s="65"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="61"/>
+      <c r="B183" s="66"/>
+      <c r="C183" s="66"/>
+      <c r="D183" s="62"/>
+      <c r="E183" s="61"/>
+      <c r="F183" s="61"/>
+      <c r="G183" s="65"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="61"/>
+      <c r="B184" s="66"/>
+      <c r="C184" s="66"/>
+      <c r="D184" s="62"/>
+      <c r="E184" s="61"/>
+      <c r="F184" s="61"/>
+      <c r="G184" s="65"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="61"/>
+      <c r="B185" s="66"/>
+      <c r="C185" s="66"/>
+      <c r="D185" s="62"/>
+      <c r="E185" s="61"/>
+      <c r="F185" s="61"/>
+      <c r="G185" s="65"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="61"/>
+      <c r="B186" s="66"/>
+      <c r="C186" s="66"/>
+      <c r="D186" s="62"/>
+      <c r="E186" s="61"/>
+      <c r="F186" s="61"/>
+      <c r="G186" s="65"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="61"/>
+      <c r="B187" s="66"/>
+      <c r="C187" s="66"/>
+      <c r="D187" s="62"/>
+      <c r="E187" s="61"/>
+      <c r="F187" s="61"/>
+      <c r="G187" s="65"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="61"/>
+      <c r="B188" s="66"/>
+      <c r="C188" s="66"/>
+      <c r="D188" s="62"/>
+      <c r="E188" s="61"/>
+      <c r="F188" s="61"/>
+      <c r="G188" s="65"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="61"/>
+      <c r="B189" s="66"/>
+      <c r="C189" s="66"/>
+      <c r="D189" s="62"/>
+      <c r="E189" s="61"/>
+      <c r="F189" s="61"/>
+      <c r="G189" s="65"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="61"/>
+      <c r="B190" s="66"/>
+      <c r="C190" s="66"/>
+      <c r="D190" s="62"/>
+      <c r="E190" s="61"/>
+      <c r="F190" s="61"/>
+      <c r="G190" s="65"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="61"/>
+      <c r="B191" s="66"/>
+      <c r="C191" s="66"/>
+      <c r="D191" s="62"/>
+      <c r="E191" s="61"/>
+      <c r="F191" s="61"/>
+      <c r="G191" s="65"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="61"/>
+      <c r="B192" s="66"/>
+      <c r="C192" s="66"/>
+      <c r="D192" s="62"/>
+      <c r="E192" s="61"/>
+      <c r="F192" s="61"/>
+      <c r="G192" s="65"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="61"/>
+      <c r="B193" s="66"/>
+      <c r="C193" s="66"/>
+      <c r="D193" s="62"/>
+      <c r="E193" s="61"/>
+      <c r="F193" s="61"/>
+      <c r="G193" s="65"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="61"/>
+      <c r="B194" s="66"/>
+      <c r="C194" s="66"/>
+      <c r="D194" s="62"/>
+      <c r="E194" s="61"/>
+      <c r="F194" s="61"/>
+      <c r="G194" s="65"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="61"/>
+      <c r="B195" s="66"/>
+      <c r="C195" s="66"/>
+      <c r="D195" s="62"/>
+      <c r="E195" s="61"/>
+      <c r="F195" s="61"/>
+      <c r="G195" s="65"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="61"/>
+      <c r="B196" s="66"/>
+      <c r="C196" s="66"/>
+      <c r="D196" s="62"/>
+      <c r="E196" s="61"/>
+      <c r="F196" s="61"/>
+      <c r="G196" s="65"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="61"/>
+      <c r="B197" s="66"/>
+      <c r="C197" s="66"/>
+      <c r="D197" s="62"/>
+      <c r="E197" s="61"/>
+      <c r="F197" s="61"/>
+      <c r="G197" s="65"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="61"/>
+      <c r="B198" s="66"/>
+      <c r="C198" s="66"/>
+      <c r="D198" s="62"/>
+      <c r="E198" s="61"/>
+      <c r="F198" s="61"/>
+      <c r="G198" s="65"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="61"/>
+      <c r="B199" s="66"/>
+      <c r="C199" s="66"/>
+      <c r="D199" s="62"/>
+      <c r="E199" s="61"/>
+      <c r="F199" s="61"/>
+      <c r="G199" s="65"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="61"/>
+      <c r="B200" s="66"/>
+      <c r="C200" s="66"/>
+      <c r="D200" s="62"/>
+      <c r="E200" s="61"/>
+      <c r="F200" s="61"/>
+      <c r="G200" s="65"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="61"/>
+      <c r="B201" s="66"/>
+      <c r="C201" s="66"/>
+      <c r="D201" s="62"/>
+      <c r="E201" s="61"/>
+      <c r="F201" s="61"/>
+      <c r="G201" s="65"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="61"/>
+      <c r="B202" s="66"/>
+      <c r="C202" s="66"/>
+      <c r="D202" s="62"/>
+      <c r="E202" s="61"/>
+      <c r="F202" s="61"/>
+      <c r="G202" s="65"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="61"/>
+      <c r="B203" s="66"/>
+      <c r="C203" s="66"/>
+      <c r="D203" s="62"/>
+      <c r="E203" s="61"/>
+      <c r="F203" s="61"/>
+      <c r="G203" s="65"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="61"/>
+      <c r="B204" s="66"/>
+      <c r="C204" s="66"/>
+      <c r="D204" s="62"/>
+      <c r="E204" s="61"/>
+      <c r="F204" s="61"/>
+      <c r="G204" s="65"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="61"/>
+      <c r="B205" s="66"/>
+      <c r="C205" s="66"/>
+      <c r="D205" s="62"/>
+      <c r="E205" s="61"/>
+      <c r="F205" s="61"/>
+      <c r="G205" s="65"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="61"/>
+      <c r="B206" s="66"/>
+      <c r="C206" s="66"/>
+      <c r="D206" s="62"/>
+      <c r="E206" s="61"/>
+      <c r="F206" s="61"/>
+      <c r="G206" s="65"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="61"/>
+      <c r="B207" s="66"/>
+      <c r="C207" s="66"/>
+      <c r="D207" s="62"/>
+      <c r="E207" s="61"/>
+      <c r="F207" s="61"/>
+      <c r="G207" s="65"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="61"/>
+      <c r="B208" s="66"/>
+      <c r="C208" s="66"/>
+      <c r="D208" s="62"/>
+      <c r="E208" s="61"/>
+      <c r="F208" s="61"/>
+      <c r="G208" s="65"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="61"/>
+      <c r="B209" s="66"/>
+      <c r="C209" s="66"/>
+      <c r="D209" s="62"/>
+      <c r="E209" s="61"/>
+      <c r="F209" s="61"/>
+      <c r="G209" s="65"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="61"/>
+      <c r="B210" s="66"/>
+      <c r="C210" s="66"/>
+      <c r="D210" s="62"/>
+      <c r="E210" s="61"/>
+      <c r="F210" s="61"/>
+      <c r="G210" s="65"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="61"/>
+      <c r="B211" s="66"/>
+      <c r="C211" s="66"/>
+      <c r="D211" s="62"/>
+      <c r="E211" s="61"/>
+      <c r="F211" s="61"/>
+      <c r="G211" s="65"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="61"/>
+      <c r="B212" s="66"/>
+      <c r="C212" s="66"/>
+      <c r="D212" s="62"/>
+      <c r="E212" s="61"/>
+      <c r="F212" s="61"/>
+      <c r="G212" s="65"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="61"/>
+      <c r="B213" s="66"/>
+      <c r="C213" s="66"/>
+      <c r="D213" s="62"/>
+      <c r="E213" s="61"/>
+      <c r="F213" s="61"/>
+      <c r="G213" s="65"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="61"/>
+      <c r="B214" s="66"/>
+      <c r="C214" s="66"/>
+      <c r="D214" s="62"/>
+      <c r="E214" s="61"/>
+      <c r="F214" s="61"/>
+      <c r="G214" s="65"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="61"/>
+      <c r="B215" s="66"/>
+      <c r="C215" s="66"/>
+      <c r="D215" s="62"/>
+      <c r="E215" s="61"/>
+      <c r="F215" s="61"/>
+      <c r="G215" s="65"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="61"/>
+      <c r="B216" s="66"/>
+      <c r="C216" s="66"/>
+      <c r="D216" s="62"/>
+      <c r="E216" s="61"/>
+      <c r="F216" s="61"/>
+      <c r="G216" s="65"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="61"/>
+      <c r="B217" s="66"/>
+      <c r="C217" s="66"/>
+      <c r="D217" s="62"/>
+      <c r="E217" s="61"/>
+      <c r="F217" s="61"/>
+      <c r="G217" s="65"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="61"/>
+      <c r="B218" s="66"/>
+      <c r="C218" s="66"/>
+      <c r="D218" s="62"/>
+      <c r="E218" s="61"/>
+      <c r="F218" s="61"/>
+      <c r="G218" s="65"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="61"/>
+      <c r="B219" s="66"/>
+      <c r="C219" s="66"/>
+      <c r="D219" s="62"/>
+      <c r="E219" s="61"/>
+      <c r="F219" s="61"/>
+      <c r="G219" s="65"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="61"/>
+      <c r="B220" s="66"/>
+      <c r="C220" s="66"/>
+      <c r="D220" s="62"/>
+      <c r="E220" s="61"/>
+      <c r="F220" s="61"/>
+      <c r="G220" s="65"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="61"/>
+      <c r="B221" s="66"/>
+      <c r="C221" s="66"/>
+      <c r="D221" s="62"/>
+      <c r="E221" s="61"/>
+      <c r="F221" s="61"/>
+      <c r="G221" s="65"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="61"/>
+      <c r="B222" s="66"/>
+      <c r="C222" s="66"/>
+      <c r="D222" s="62"/>
+      <c r="E222" s="61"/>
+      <c r="F222" s="61"/>
+      <c r="G222" s="65"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="61"/>
+      <c r="B223" s="66"/>
+      <c r="C223" s="66"/>
+      <c r="D223" s="62"/>
+      <c r="E223" s="61"/>
+      <c r="F223" s="61"/>
+      <c r="G223" s="65"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="61"/>
+      <c r="B224" s="66"/>
+      <c r="C224" s="66"/>
+      <c r="D224" s="62"/>
+      <c r="E224" s="61"/>
+      <c r="F224" s="61"/>
+      <c r="G224" s="65"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="61"/>
+      <c r="B225" s="66"/>
+      <c r="C225" s="66"/>
+      <c r="D225" s="62"/>
+      <c r="E225" s="61"/>
+      <c r="F225" s="61"/>
+      <c r="G225" s="65"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="61"/>
+      <c r="B226" s="66"/>
+      <c r="C226" s="66"/>
+      <c r="D226" s="62"/>
+      <c r="E226" s="61"/>
+      <c r="F226" s="61"/>
+      <c r="G226" s="65"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="61"/>
+      <c r="B227" s="66"/>
+      <c r="C227" s="66"/>
+      <c r="D227" s="62"/>
+      <c r="E227" s="61"/>
+      <c r="F227" s="61"/>
+      <c r="G227" s="65"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="61"/>
+      <c r="B228" s="66"/>
+      <c r="C228" s="66"/>
+      <c r="D228" s="62"/>
+      <c r="E228" s="61"/>
+      <c r="F228" s="61"/>
+      <c r="G228" s="65"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="61"/>
+      <c r="B229" s="66"/>
+      <c r="C229" s="66"/>
+      <c r="D229" s="62"/>
+      <c r="E229" s="61"/>
+      <c r="F229" s="61"/>
+      <c r="G229" s="65"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="61"/>
+      <c r="B230" s="66"/>
+      <c r="C230" s="66"/>
+      <c r="D230" s="62"/>
+      <c r="E230" s="61"/>
+      <c r="F230" s="61"/>
+      <c r="G230" s="65"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="61"/>
+      <c r="B231" s="66"/>
+      <c r="C231" s="66"/>
+      <c r="D231" s="62"/>
+      <c r="E231" s="61"/>
+      <c r="F231" s="61"/>
+      <c r="G231" s="65"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="61"/>
+      <c r="B232" s="66"/>
+      <c r="C232" s="66"/>
+      <c r="D232" s="62"/>
+      <c r="E232" s="61"/>
+      <c r="F232" s="61"/>
+      <c r="G232" s="65"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="61"/>
+      <c r="B233" s="66"/>
+      <c r="C233" s="66"/>
+      <c r="D233" s="62"/>
+      <c r="E233" s="61"/>
+      <c r="F233" s="61"/>
+      <c r="G233" s="65"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="61"/>
+      <c r="B234" s="66"/>
+      <c r="C234" s="66"/>
+      <c r="D234" s="62"/>
+      <c r="E234" s="61"/>
+      <c r="F234" s="61"/>
+      <c r="G234" s="65"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="61"/>
+      <c r="B235" s="66"/>
+      <c r="C235" s="66"/>
+      <c r="D235" s="62"/>
+      <c r="E235" s="61"/>
+      <c r="F235" s="61"/>
+      <c r="G235" s="65"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="61"/>
+      <c r="B236" s="66"/>
+      <c r="C236" s="66"/>
+      <c r="D236" s="62"/>
+      <c r="E236" s="61"/>
+      <c r="F236" s="61"/>
+      <c r="G236" s="65"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="61"/>
+      <c r="B237" s="66"/>
+      <c r="C237" s="66"/>
+      <c r="D237" s="62"/>
+      <c r="E237" s="61"/>
+      <c r="F237" s="61"/>
+      <c r="G237" s="65"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="61"/>
+      <c r="B238" s="66"/>
+      <c r="C238" s="66"/>
+      <c r="D238" s="62"/>
+      <c r="E238" s="61"/>
+      <c r="F238" s="61"/>
+      <c r="G238" s="65"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="61"/>
+      <c r="B239" s="66"/>
+      <c r="C239" s="66"/>
+      <c r="D239" s="62"/>
+      <c r="E239" s="61"/>
+      <c r="F239" s="61"/>
+      <c r="G239" s="65"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="61"/>
+      <c r="B240" s="66"/>
+      <c r="C240" s="66"/>
+      <c r="D240" s="62"/>
+      <c r="E240" s="61"/>
+      <c r="F240" s="61"/>
+      <c r="G240" s="65"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="61"/>
+      <c r="B241" s="66"/>
+      <c r="C241" s="66"/>
+      <c r="D241" s="62"/>
+      <c r="E241" s="61"/>
+      <c r="F241" s="61"/>
+      <c r="G241" s="65"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="61"/>
+      <c r="B242" s="66"/>
+      <c r="C242" s="66"/>
+      <c r="D242" s="62"/>
+      <c r="E242" s="61"/>
+      <c r="F242" s="61"/>
+      <c r="G242" s="65"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="61"/>
+      <c r="B243" s="66"/>
+      <c r="C243" s="66"/>
+      <c r="D243" s="62"/>
+      <c r="E243" s="61"/>
+      <c r="F243" s="61"/>
+      <c r="G243" s="65"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="61"/>
+      <c r="B244" s="66"/>
+      <c r="C244" s="66"/>
+      <c r="D244" s="62"/>
+      <c r="E244" s="61"/>
+      <c r="F244" s="61"/>
+      <c r="G244" s="65"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="61"/>
+      <c r="B245" s="66"/>
+      <c r="C245" s="66"/>
+      <c r="D245" s="62"/>
+      <c r="E245" s="61"/>
+      <c r="F245" s="61"/>
+      <c r="G245" s="65"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="61"/>
+      <c r="B246" s="66"/>
+      <c r="C246" s="66"/>
+      <c r="D246" s="62"/>
+      <c r="E246" s="61"/>
+      <c r="F246" s="61"/>
+      <c r="G246" s="65"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="61"/>
+      <c r="B247" s="66"/>
+      <c r="C247" s="66"/>
+      <c r="D247" s="62"/>
+      <c r="E247" s="61"/>
+      <c r="F247" s="61"/>
+      <c r="G247" s="65"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="61"/>
+      <c r="B248" s="66"/>
+      <c r="C248" s="66"/>
+      <c r="D248" s="62"/>
+      <c r="E248" s="61"/>
+      <c r="F248" s="61"/>
+      <c r="G248" s="65"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="61"/>
+      <c r="B249" s="66"/>
+      <c r="C249" s="66"/>
+      <c r="D249" s="62"/>
+      <c r="E249" s="61"/>
+      <c r="F249" s="61"/>
+      <c r="G249" s="65"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="61"/>
+      <c r="B250" s="66"/>
+      <c r="C250" s="66"/>
+      <c r="D250" s="62"/>
+      <c r="E250" s="61"/>
+      <c r="F250" s="61"/>
+      <c r="G250" s="65"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" s="61"/>
+      <c r="B251" s="66"/>
+      <c r="C251" s="66"/>
+      <c r="D251" s="62"/>
+      <c r="E251" s="61"/>
+      <c r="F251" s="61"/>
+      <c r="G251" s="65"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" s="61"/>
+      <c r="B252" s="66"/>
+      <c r="C252" s="66"/>
+      <c r="D252" s="62"/>
+      <c r="E252" s="61"/>
+      <c r="F252" s="61"/>
+      <c r="G252" s="65"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" s="61"/>
+      <c r="B253" s="66"/>
+      <c r="C253" s="66"/>
+      <c r="D253" s="62"/>
+      <c r="E253" s="61"/>
+      <c r="F253" s="61"/>
+      <c r="G253" s="65"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" s="61"/>
+      <c r="B254" s="66"/>
+      <c r="C254" s="66"/>
+      <c r="D254" s="62"/>
+      <c r="E254" s="61"/>
+      <c r="F254" s="61"/>
+      <c r="G254" s="65"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -4087,34 +5496,34 @@
       <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="56" t="str">
+      <c r="B4" s="54" t="str">
         <f>'Cover Sheet'!B6&amp;"/"&amp;'Cover Sheet'!B7</f>
         <v>&lt;ricefw_id&gt;/&lt;ricefw_name&gt;</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
     </row>
     <row r="5" spans="1:9" s="21" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" spans="1:9" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
@@ -4330,35 +5739,35 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="37" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="18.85546875" style="36" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="39"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="40"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4376,6 +5785,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005728D1A9E76DEE4AB150F9665B6E32DE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b3c4b560ffc9e8717465e4e3b6c07aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b9ef57f-2eae-415f-9583-638ca9fe1a2e" xmlns:ns3="99442fa1-b030-4a0c-a9a1-2d427f9046da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5214ce83a59b096b02a6144a3473480" ns2:_="" ns3:_="">
     <xsd:import namespace="3b9ef57f-2eae-415f-9583-638ca9fe1a2e"/>
@@ -4612,7 +6030,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="99442fa1-b030-4a0c-a9a1-2d427f9046da" xsi:nil="true"/>
@@ -4630,16 +6048,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{707FE0EB-7438-4833-B449-E9FA16D2AE49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09BF4FDF-60BE-42FB-863A-D956A4C8DB30}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4658,7 +6075,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3369532D-244B-479C-AD98-A9059AE0C38A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4669,12 +6086,4 @@
     <ds:schemaRef ds:uri="3b9ef57f-2eae-415f-9583-638ca9fe1a2e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{707FE0EB-7438-4833-B449-E9FA16D2AE49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>